--- a/2025-01-11_anime_season_stats.xlsx
+++ b/2025-01-11_anime_season_stats.xlsx
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6347"/>
+        <bgColor rgb="00FF6347"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032CD32"/>
+        <bgColor rgb="0032CD32"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1067,7 +1081,7 @@
       <c r="B4" t="n">
         <v>2006</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
@@ -1228,7 +1242,7 @@
       <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>6.35</v>
       </c>
       <c r="E6" t="n">
@@ -1466,10 +1480,10 @@
       <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6.23</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>6.59</v>
       </c>
       <c r="F8" t="inlineStr">
@@ -1592,7 +1606,7 @@
       <c r="B9" t="n">
         <v>2007</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D9" t="n">
@@ -3485,7 +3499,7 @@
       <c r="D22" t="n">
         <v>7.03</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="3" t="n">
         <v>7.88</v>
       </c>
       <c r="F22" t="inlineStr">
@@ -4047,7 +4061,7 @@
       <c r="D25" t="n">
         <v>6.69</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2" t="n">
         <v>6.62</v>
       </c>
       <c r="F25" t="inlineStr">
@@ -9485,7 +9499,7 @@
       <c r="C49" t="n">
         <v>37</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="3" t="n">
         <v>7.59</v>
       </c>
       <c r="E49" t="n">
@@ -9686,7 +9700,7 @@
       <c r="B50" t="n">
         <v>2018</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="3" t="n">
         <v>57</v>
       </c>
       <c r="D50" t="n">
@@ -10254,13 +10268,13 @@
       <c r="B52" t="n">
         <v>2018</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="3" t="n">
         <v>61</v>
       </c>
       <c r="D52" t="n">
         <v>7.52</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="3" t="n">
         <v>7.96</v>
       </c>
       <c r="F52" t="inlineStr">
@@ -12090,7 +12104,7 @@
       <c r="C59" t="n">
         <v>37</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="3" t="n">
         <v>7.62</v>
       </c>
       <c r="E59" t="n">
